--- a/src/test/resources/datafiles/TestData.xlsx
+++ b/src/test/resources/datafiles/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Intellij\Framework\TestAutomationFramework\TAF\src\test\resources\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8CAD65-BADB-41F0-957D-FE00A116DC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D21B09D-7046-47AE-B0A1-BC5F6CAD1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F787CBAC-31AD-48D8-9536-A9774AD06716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,31 +37,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>DataKey</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>sampleTestMethod1</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
-    <t>VivekPassword123</t>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>'012345</t>
+  </si>
+  <si>
+    <t>Special Character @</t>
+  </si>
+  <si>
+    <t>supplierName</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1123</t>
+  </si>
+  <si>
+    <t>Length More than 300 characters</t>
+  </si>
+  <si>
+    <t>Length Less than 300 characters</t>
+  </si>
+  <si>
+    <t>Numbers Only</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>supplierDetails.Supplier's Name: Only Combination Of Letters and Numbers are allowed and Only numbers are not allowed</t>
+  </si>
+  <si>
+    <t>supplierDetails.name must be shorter than or equal to 300 characters</t>
+  </si>
+  <si>
+    <t>supplierDetails.Supplier's Name: Only Combination Of Letters and Numbers are allowed and Only numbers are not allowed,        supplierDetails.Please enter name</t>
+  </si>
+  <si>
+    <t>supplierEmail</t>
+  </si>
+  <si>
+    <t>supplierDetails.email must be shorter than or equal to 300 characters</t>
+  </si>
+  <si>
+    <r>
+      <t>supplierDetails.email must be an email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF444444"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF00B300"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>supplierDetails.Please enter email</t>
+    </r>
+  </si>
+  <si>
+    <t>supplierDetails.email must be an email</t>
+  </si>
+  <si>
+    <t>sampleemail!123@gmail.com</t>
+  </si>
+  <si>
+    <t>11111@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdjklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghinopqrstuvwx1123@gmail.com</t>
+  </si>
+  <si>
+    <t>Special Character !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +150,26 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FF00627A"/>
       <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF00B300"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Lucida Console"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -92,16 +190,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,35 +520,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED856457-08EA-4A01-A206-A93DF60DA0F1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11111</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <f>LEN(C7)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{CEEA5D0B-2A83-4E2C-9BAD-80336F301DEF}"/>
+    <hyperlink ref="C7" r:id="rId2" display="abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdjklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghijklmnopqrstuvwxyz1abcdefghinopqrstuvwx1123@gmail.com" xr:uid="{33247789-023C-44CE-B1EB-A982B148FC8F}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{D8169429-9D95-4027-816A-D9D007DD4BB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F788498-A7EE-41BD-AD88-9040E5ABC680}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
